--- a/results/mp/tinybert/dilemma/confidence/42/stop-words-topk-masking-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/42/stop-words-topk-masking-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,87 +40,84 @@
     <t>name</t>
   </si>
   <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>insane</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>fucked</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>[UNK]</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>destroying</t>
-  </si>
-  <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
-    <t>[UNK]</t>
-  </si>
-  <si>
     <t>amazing</t>
   </si>
   <si>
@@ -148,43 +145,52 @@
     <t>important</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>thanks</t>
+    <t>wow</t>
   </si>
   <si>
     <t>worth</t>
   </si>
   <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
     <t>new</t>
   </si>
   <si>
+    <t>many</t>
+  </si>
+  <si>
     <t>social</t>
   </si>
   <si>
-    <t>true</t>
+    <t>much</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>watching</t>
   </si>
   <si>
     <t>media</t>
   </si>
   <si>
+    <t>netflix</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
     <t>’</t>
-  </si>
-  <si>
-    <t>netflix</t>
-  </si>
-  <si>
-    <t>…</t>
-  </si>
-  <si>
-    <t>watch</t>
   </si>
   <si>
     <t>positive</t>
@@ -545,7 +551,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -553,10 +559,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="J1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -617,10 +623,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -635,7 +641,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -664,13 +670,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.9807692307692307</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -682,10 +688,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K4">
         <v>0.9090909090909091</v>
@@ -714,13 +720,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -732,10 +738,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K5">
         <v>0.9</v>
@@ -764,13 +770,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9545454545454546</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C6">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -782,10 +788,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K6">
         <v>0.86</v>
@@ -814,13 +820,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9326923076923077</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C7">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="D7">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -832,10 +838,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K7">
         <v>0.7192982456140351</v>
@@ -864,13 +870,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9230769230769231</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C8">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -885,7 +891,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K8">
         <v>0.6896551724137931</v>
@@ -917,10 +923,10 @@
         <v>0.9</v>
       </c>
       <c r="C9">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D9">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -932,19 +938,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K9">
-        <v>0.6666666666666666</v>
+        <v>0.68</v>
       </c>
       <c r="L9">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M9">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -956,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -964,13 +970,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8125</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C10">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D10">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -982,10 +988,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K10">
         <v>0.631578947368421</v>
@@ -1014,13 +1020,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7894736842105263</v>
+        <v>0.8125</v>
       </c>
       <c r="C11">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1032,19 +1038,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K11">
-        <v>0.6</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="L11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1056,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1064,13 +1070,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7647058823529411</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C12">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D12">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1085,16 +1091,16 @@
         <v>4</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K12">
         <v>0.5555555555555556</v>
       </c>
       <c r="L12">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M12">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1106,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1114,13 +1120,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.75</v>
+        <v>0.675</v>
       </c>
       <c r="C13">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D13">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1132,19 +1138,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K13">
-        <v>0.5555555555555556</v>
+        <v>0.4242424242424243</v>
       </c>
       <c r="L13">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M13">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1156,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1164,13 +1170,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6923076923076923</v>
+        <v>0.65</v>
       </c>
       <c r="C14">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D14">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1182,31 +1188,31 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K14">
-        <v>0.4444444444444444</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="L14">
+        <v>11</v>
+      </c>
+      <c r="M14">
+        <v>11</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <v>16</v>
-      </c>
-      <c r="M14">
-        <v>16</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1214,13 +1220,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.65</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C15">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D15">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1232,19 +1238,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K15">
-        <v>0.4242424242424243</v>
+        <v>0.3958333333333333</v>
       </c>
       <c r="L15">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M15">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1256,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1267,10 +1273,10 @@
         <v>0.625</v>
       </c>
       <c r="C16">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D16">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1282,19 +1288,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K16">
-        <v>0.3958333333333333</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="L16">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M16">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1306,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1314,13 +1320,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5957446808510638</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C17">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D17">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1332,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K17">
-        <v>0.3050847457627119</v>
+        <v>0.2542372881355932</v>
       </c>
       <c r="L17">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M17">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1356,7 +1362,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1364,13 +1370,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5942028985507246</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C18">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="D18">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1382,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K18">
-        <v>0.2358834244080146</v>
+        <v>0.2439024390243902</v>
       </c>
       <c r="L18">
-        <v>259</v>
+        <v>10</v>
       </c>
       <c r="M18">
-        <v>259</v>
+        <v>10</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1406,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>839</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1414,13 +1420,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5625</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="C19">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D19">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1432,19 +1438,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K19">
-        <v>0.1408450704225352</v>
+        <v>0.2340619307832423</v>
       </c>
       <c r="L19">
-        <v>10</v>
+        <v>257</v>
       </c>
       <c r="M19">
-        <v>10</v>
+        <v>257</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1456,7 +1462,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>61</v>
+        <v>841</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1464,13 +1470,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5384615384615384</v>
+        <v>0.5434782608695652</v>
       </c>
       <c r="C20">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="D20">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1482,19 +1488,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K20">
-        <v>0.0286144578313253</v>
+        <v>0.1384615384615385</v>
       </c>
       <c r="L20">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="M20">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1506,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>645</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1514,13 +1520,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5217391304347826</v>
+        <v>0.5</v>
       </c>
       <c r="C21">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D21">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1532,19 +1538,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K21">
-        <v>0.01792573623559539</v>
+        <v>0.09473684210526316</v>
       </c>
       <c r="L21">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="M21">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1556,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>767</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1564,13 +1570,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5142857142857142</v>
+        <v>0.5</v>
       </c>
       <c r="C22">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D22">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1582,19 +1588,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K22">
-        <v>0.01666666666666667</v>
+        <v>0.02932551319648094</v>
       </c>
       <c r="L22">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M22">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1606,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>531</v>
+        <v>331</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1635,16 +1641,16 @@
         <v>12</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K23">
-        <v>0.01497695852534562</v>
+        <v>0.02710843373493976</v>
       </c>
       <c r="L23">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="M23">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1656,7 +1662,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>1710</v>
+        <v>646</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1664,13 +1670,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4761904761904762</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="C24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1682,19 +1688,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K24">
-        <v>0.01461038961038961</v>
+        <v>0.02592592592592593</v>
       </c>
       <c r="L24">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="M24">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1706,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>607</v>
+        <v>526</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1714,13 +1720,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4358974358974359</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="C25">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D25">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1732,7 +1738,31 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K25">
+        <v>0.01785714285714286</v>
+      </c>
+      <c r="L25">
+        <v>11</v>
+      </c>
+      <c r="M25">
+        <v>11</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>605</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1740,13 +1770,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4285714285714285</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C26">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D26">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1758,7 +1788,31 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>16</v>
+        <v>65</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K26">
+        <v>0.01440092165898618</v>
+      </c>
+      <c r="L26">
+        <v>25</v>
+      </c>
+      <c r="M26">
+        <v>25</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>1711</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1766,7 +1820,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4285714285714285</v>
+        <v>0.04013377926421405</v>
       </c>
       <c r="C27">
         <v>12</v>
@@ -1784,59 +1838,31 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="A28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28">
-        <v>0.1794871794871795</v>
-      </c>
-      <c r="C28">
-        <v>14</v>
-      </c>
-      <c r="D28">
-        <v>14</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="A29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29">
-        <v>0.0505050505050505</v>
-      </c>
-      <c r="C29">
-        <v>15</v>
-      </c>
-      <c r="D29">
-        <v>17</v>
-      </c>
-      <c r="E29">
-        <v>0.12</v>
-      </c>
-      <c r="F29">
-        <v>0.88</v>
-      </c>
-      <c r="G29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>282</v>
+        <v>287</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K27">
+        <v>0.01408450704225352</v>
+      </c>
+      <c r="L27">
+        <v>11</v>
+      </c>
+      <c r="M27">
+        <v>11</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>770</v>
       </c>
     </row>
   </sheetData>
